--- a/test/input/InvalidFunctionalValue.xlsx
+++ b/test/input/InvalidFunctionalValue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Input Value</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>Tine-Vest RS</t>
-  </si>
-  <si>
-    <t>Perf-Vest RS</t>
   </si>
   <si>
     <t>Value</t>
@@ -435,12 +432,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5960784313725"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -611,22 +608,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="G10" activeCellId="0" pane="topLeft" sqref="G10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="X1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="AF1" activeCellId="0" pane="topLeft" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.57254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.58039215686275"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.443137254902"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.91372549019608"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9333333333333"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
@@ -669,7 +666,6 @@
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="B2" s="9"/>
@@ -708,7 +704,6 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="10" t="s">
@@ -799,31 +794,28 @@
       <c r="AE3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="10" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>1000</v>
@@ -894,13 +886,10 @@
       <c r="AE4" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="AF4" s="13" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
       <c r="A5" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -932,11 +921,10 @@
       <c r="AC5" s="14"/>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
@@ -968,7 +956,6 @@
       <c r="AC6" s="14"/>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
       <c r="A7" s="11" t="s">
@@ -1004,11 +991,10 @@
       <c r="AC7" s="15"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1040,7 +1026,6 @@
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
       <c r="A9" s="15"/>
@@ -1074,29 +1059,28 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I10" s="13" t="n">
         <v>1000</v>
@@ -1167,13 +1151,10 @@
       <c r="AE10" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="AF10" s="13" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1205,11 +1186,10 @@
       <c r="AC11" s="14"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="15"/>
@@ -1241,7 +1221,6 @@
       <c r="AC12" s="14"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="11" t="s">
@@ -1277,11 +1256,10 @@
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1313,14 +1291,13 @@
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AB1:AF2"/>
+    <mergeCell ref="AB1:AE2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:AA2"/>

--- a/test/input/InvalidFunctionalValue.xlsx
+++ b/test/input/InvalidFunctionalValue.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>Input Value</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Co Name</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Doc Type</t>
@@ -245,7 +242,7 @@
     <numFmt formatCode="#,##0" numFmtId="166"/>
     <numFmt formatCode="@" numFmtId="167"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -270,15 +267,10 @@
     </font>
     <font>
       <name val="Gill Sans MT"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -289,24 +281,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <color rgb="00DD0806"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -315,6 +294,14 @@
       <b val="true"/>
       <color rgb="00000000"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Gill Sans MT"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="5">
@@ -332,20 +319,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0099CCFF"/>
         <bgColor rgb="00CCCCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="003C3C3C"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thick">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="003C3C3C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="003C3C3C"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="medium">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="medium">
+        <color rgb="003C3C3C"/>
+      </right>
+      <top style="medium">
+        <color rgb="003C3C3C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="003C3C3C"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -356,9 +438,7 @@
         <color rgb="003C3C3C"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="003C3C3C"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="003C3C3C"/>
       </bottom>
@@ -367,9 +447,7 @@
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="003C3C3C"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="003C3C3C"/>
       </bottom>
@@ -380,90 +458,8 @@
       <right style="medium">
         <color rgb="003C3C3C"/>
       </right>
-      <top style="medium">
-        <color rgb="003C3C3C"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="003C3C3C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin">
-        <color rgb="003C3C3C"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="003C3C3C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="thin">
-        <color rgb="003C3C3C"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="003C3C3C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="thin">
-        <color rgb="003C3C3C"/>
-      </right>
-      <top style="thin">
-        <color rgb="003C3C3C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin">
-        <color rgb="003C3C3C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin">
-        <color rgb="003C3C3C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="003C3C3C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="003C3C3C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="thin">
-        <color rgb="003C3C3C"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color rgb="003C3C3C"/>
       </bottom>
       <diagonal/>
@@ -504,49 +500,49 @@
   <cellXfs count="42">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="9" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="8" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="8" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="3" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="3" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="7" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="6" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="8" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="5" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="9" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="4" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="10" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="6" fillId="4" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="12" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="12" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="13" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="13" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
@@ -627,17 +623,17 @@
   </sheetPr>
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A37" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
       <selection activeCell="C41" activeCellId="0" pane="topLeft" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -652,607 +648,610 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2" s="4">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2" s="2">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="T3" s="7"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="T3" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="T4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="T4" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="B5" s="6"/>
-      <c r="T5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="T5" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="T6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="T6" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="T7" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="18" t="n">
+        <v>40971</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="21"/>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="T10" s="7"/>
+      <c r="T10" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="24"/>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
-      <c r="T11" s="7"/>
+      <c r="T11" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="24"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="T12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16"/>
+      <c r="T12" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23"/>
-      <c r="T13" s="7"/>
+      <c r="T13" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="T14" s="7"/>
+      <c r="T14" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
       <c r="A15" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="T15" s="7"/>
+      <c r="T15" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
       <c r="A16" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="T16" s="7"/>
+      <c r="T16" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
       <c r="A17" s="24"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="T17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="T17" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
       <c r="A18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="T18" s="7"/>
+      <c r="T18" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
       <c r="A19" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="20">
+      <c r="T19" s="6"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="20">
       <c r="A20" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="22"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="25"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="26">
-      <c r="A26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="8"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="22"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="23"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="24"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="25"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="26">
+      <c r="A26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18" t="n">
+        <v>40971</v>
+      </c>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="27">
       <c r="A27" s="21"/>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="28">
       <c r="A28" s="24"/>
-      <c r="B28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="29">
       <c r="A29" s="24"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="30">
+      <c r="B29" s="5"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="30">
       <c r="A30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="31">
       <c r="A31" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="32">
       <c r="A32" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="22"/>
       <c r="E32" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="33">
       <c r="A33" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="34">
       <c r="A34" s="24"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="35">
+      <c r="B34" s="5"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="35">
       <c r="A35" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="36">
       <c r="A36" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="37">
       <c r="A37" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="38">
       <c r="A38" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="39"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="40"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="41">
-      <c r="A41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="8"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="39"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="40"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="41">
+      <c r="A41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="18" t="n">
+        <v>40971</v>
+      </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="42">
       <c r="A42" s="21"/>
-      <c r="B42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="3"/>
+      <c r="B42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="22"/>
       <c r="E42" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="43">
       <c r="A43" s="24"/>
-      <c r="B43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3"/>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="22"/>
       <c r="E43" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="44">
       <c r="A44" s="24"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="45">
+      <c r="B44" s="5"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="45">
       <c r="A45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="22"/>
       <c r="E45" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="46">
       <c r="A46" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="22"/>
       <c r="E46" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="47">
       <c r="A47" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="22"/>
       <c r="E47" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="48">
       <c r="A48" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="49">
       <c r="A49" s="24"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="50">
+      <c r="B49" s="5"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="50">
       <c r="A50" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="51">
       <c r="A51" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="22"/>
       <c r="E51" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="52">
       <c r="A52" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="53">
       <c r="A53" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
       <c r="E53" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="54"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="55"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="56">
-      <c r="A56" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>10</v>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="54"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="55"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="56">
+      <c r="A56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="19"/>
       <c r="E56" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="57">
       <c r="A57" s="21"/>
-      <c r="B57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="3"/>
+      <c r="B57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="22"/>
       <c r="E57" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="58">
       <c r="A58" s="24"/>
-      <c r="B58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="3"/>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="22"/>
       <c r="E58" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="59">
       <c r="A59" s="24"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="60">
+      <c r="B59" s="5"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="60">
       <c r="A60" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="22"/>
       <c r="E60" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="61">
       <c r="A61" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="22"/>
       <c r="E61" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="62">
       <c r="A62" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="22"/>
       <c r="E62" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="63">
       <c r="A63" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="64">
       <c r="A64" s="24"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="65">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="16"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="65">
       <c r="A65" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="C65" s="22"/>
       <c r="D65" s="22"/>
       <c r="E65" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="66">
       <c r="A66" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" s="27"/>
       <c r="D66" s="22"/>
       <c r="E66" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="67">
       <c r="A67" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.5" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="68">
       <c r="A68" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
@@ -1283,11 +1282,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="C41 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.40392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.41176470588235"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1308,25 +1307,25 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="U1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="AI10" activeCellId="0" pane="topLeft" sqref="AI10"/>
+      <selection activeCell="AI10" activeCellId="1" pane="topLeft" sqref="C41 AI10"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9529411764706"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.956862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4705882352941"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9529411764706"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.94117647058824"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.956862745098"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="B1" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -1335,7 +1334,7 @@
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
       <c r="I1" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
@@ -1344,7 +1343,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
       <c r="P1" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="33"/>
       <c r="R1" s="33"/>
@@ -1358,7 +1357,7 @@
       <c r="Z1" s="33"/>
       <c r="AA1" s="33"/>
       <c r="AB1" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="33"/>
       <c r="AD1" s="33"/>
@@ -1374,18 +1373,18 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="33"/>
@@ -1406,118 +1405,118 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="F3" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="G3" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="T3" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>48</v>
       </c>
       <c r="U3" s="35"/>
       <c r="V3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="X3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="Y3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AB3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AC3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AD3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AE3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AF3" s="34" t="s">
         <v>56</v>
-      </c>
-      <c r="AF3" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="I4" s="37" t="n">
         <v>1000</v>
@@ -1594,7 +1593,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
       <c r="A5" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -1630,7 +1629,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="39"/>
@@ -1702,7 +1701,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -1772,25 +1771,25 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="F10" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H10" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="I10" s="37" t="n">
         <v>1000</v>
@@ -1867,7 +1866,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
       <c r="A11" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -1903,7 +1902,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="39"/>
@@ -1975,7 +1974,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>

--- a/test/input/InvalidFunctionalValue.xlsx
+++ b/test/input/InvalidFunctionalValue.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Input Value</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Tine-Vest RS</t>
+  </si>
+  <si>
+    <t>Perf-Vest RS</t>
   </si>
   <si>
     <t>Value</t>
@@ -220,7 +223,7 @@
     <numFmt formatCode="#,##0" numFmtId="166"/>
     <numFmt formatCode="@" numFmtId="167"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -262,6 +265,12 @@
       <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="00000000"/>
       <sz val="12"/>
     </font>
@@ -327,7 +336,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0"/>
@@ -342,6 +351,7 @@
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
@@ -432,12 +442,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.5960784313725"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1960784313725"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -608,22 +618,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="X1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="AF1" activeCellId="0" pane="topLeft" sqref="AF1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="U1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="AI10" activeCellId="0" pane="topLeft" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.5843137254902"/>
     <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.443137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9372549019608"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4509803921569"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.91372549019608"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.92156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9372549019608"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
@@ -666,6 +676,7 @@
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="B2" s="9"/>
@@ -704,6 +715,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="10" t="s">
@@ -794,510 +806,528 @@
       <c r="AE3" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="AF3" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E4" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="I4" s="14" t="n">
         <v>1000</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13" t="n">
+      <c r="K4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="AC4" s="14" t="n">
+      <c r="AC4" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="AD4" s="13" t="n">
+      <c r="AD4" s="14" t="n">
         <v>300</v>
       </c>
-      <c r="AE4" s="13" t="n">
+      <c r="AE4" s="14" t="n">
         <v>400</v>
+      </c>
+      <c r="AF4" s="14" t="n">
+        <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
       <c r="A5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="D10" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="13" t="n">
+        <v>57</v>
+      </c>
+      <c r="I10" s="14" t="n">
         <v>1000</v>
       </c>
-      <c r="J10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="13" t="n">
+      <c r="J10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="AC10" s="14" t="n">
+      <c r="AC10" s="15" t="n">
         <v>200</v>
       </c>
-      <c r="AD10" s="13" t="n">
+      <c r="AD10" s="14" t="n">
         <v>300</v>
       </c>
-      <c r="AE10" s="13" t="n">
+      <c r="AE10" s="14" t="n">
         <v>400</v>
+      </c>
+      <c r="AF10" s="14" t="n">
+        <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
       <c r="A11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AB1:AE2"/>
+    <mergeCell ref="AB1:AF2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:AA2"/>

--- a/test/input/InvalidFunctionalValue.xlsx
+++ b/test/input/InvalidFunctionalValue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="146" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="146" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="DOC_SRC" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>Input Value</t>
   </si>
@@ -130,16 +130,25 @@
     <t>Short Title</t>
   </si>
   <si>
-    <t>Functional Match</t>
-  </si>
-  <si>
-    <t>Functional Match 1</t>
-  </si>
-  <si>
-    <t>Functional Match 2</t>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>bod</t>
   </si>
   <si>
     <t>Founder</t>
+  </si>
+  <si>
+    <t>Transition Period</t>
   </si>
   <si>
     <t>Base Salary</t>
@@ -621,17 +630,17 @@
   </sheetPr>
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
       <selection activeCell="D10" activeCellId="0" pane="topLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6039215686274"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.7098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1317,7 +1326,7 @@
       <c r="D68" s="9"/>
       <c r="E68" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="69">
       <c r="A69" s="24" t="s">
         <v>22</v>
       </c>
@@ -1328,7 +1337,7 @@
       <c r="D69" s="9"/>
       <c r="E69" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.5" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.5" outlineLevel="0" r="70">
       <c r="A70" s="28" t="s">
         <v>23</v>
       </c>
@@ -1368,7 +1377,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.41960784313726"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.43137254901961"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1386,23 +1395,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="U1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
-      <selection activeCell="AI10" activeCellId="0" pane="topLeft" sqref="AI10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="F1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100">
+      <selection activeCell="K10" activeCellId="0" pane="topLeft" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.3843137254902"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.60392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.4823529411765"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.3843137254902"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.94901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.9647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="19.1333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.9843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.4980392156863"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.3843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.96078431372549"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.3843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
@@ -1415,21 +1426,21 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
-      <c r="I1" s="31" t="s">
-        <v>29</v>
-      </c>
+      <c r="I1" s="31"/>
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="L1" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
-      <c r="P1" s="31" t="s">
-        <v>30</v>
-      </c>
+      <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="S1" s="31" t="s">
+        <v>30</v>
+      </c>
       <c r="T1" s="31"/>
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
@@ -1438,13 +1449,16 @@
       <c r="Y1" s="31"/>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
-      <c r="AB1" s="31" t="s">
-        <v>31</v>
-      </c>
+      <c r="AB1" s="31"/>
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
+      <c r="AE1" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="B2" s="31"/>
@@ -1454,23 +1468,23 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="I2" s="31"/>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="L2" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="M2" s="31"/>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
       <c r="T2" s="31"/>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
@@ -1484,6 +1498,9 @@
       <c r="AD2" s="31"/>
       <c r="AE2" s="31"/>
       <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="B3" s="32" t="s">
@@ -1523,19 +1540,19 @@
         <v>45</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="S3" s="32" t="s">
         <v>49</v>
@@ -1543,30 +1560,30 @@
       <c r="T3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="33"/>
+      <c r="U3" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="V3" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="32" t="s">
         <v>53</v>
       </c>
+      <c r="X3" s="33"/>
       <c r="Y3" s="32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="32" t="s">
+      <c r="AC3" s="32" t="s">
         <v>55</v>
-      </c>
-      <c r="AC3" s="32" t="s">
-        <v>56</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>57</v>
@@ -1577,42 +1594,42 @@
       <c r="AF3" s="32" t="s">
         <v>59</v>
       </c>
+      <c r="AG3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" s="32" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="35" t="n">
+        <v>68</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="35" t="n">
         <v>1000</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="35" t="n">
+      <c r="M4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="35" t="n">
@@ -1658,24 +1675,33 @@
         <v>1</v>
       </c>
       <c r="AB4" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="AC4" s="36" t="n">
+      <c r="AF4" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="AD4" s="35" t="n">
+      <c r="AG4" s="35" t="n">
         <v>300</v>
       </c>
-      <c r="AE4" s="35" t="n">
+      <c r="AH4" s="35" t="n">
         <v>400</v>
       </c>
-      <c r="AF4" s="35" t="n">
+      <c r="AI4" s="35" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="5">
       <c r="A5" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -1704,14 +1730,17 @@
       <c r="Z5" s="37"/>
       <c r="AA5" s="37"/>
       <c r="AB5" s="37"/>
-      <c r="AC5" s="36"/>
+      <c r="AC5" s="37"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="6">
       <c r="A6" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="37"/>
@@ -1740,10 +1769,13 @@
       <c r="Z6" s="37"/>
       <c r="AA6" s="37"/>
       <c r="AB6" s="37"/>
-      <c r="AC6" s="36"/>
+      <c r="AC6" s="37"/>
       <c r="AD6" s="37"/>
       <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="7">
       <c r="A7" s="33" t="s">
@@ -1780,10 +1812,13 @@
       <c r="AD7" s="37"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="8">
       <c r="A8" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -1816,6 +1851,9 @@
       <c r="AD8" s="37"/>
       <c r="AE8" s="37"/>
       <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="1" r="9">
       <c r="A9" s="37"/>
@@ -1850,41 +1888,35 @@
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
       <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17.5" outlineLevel="0" r="10">
       <c r="A10" s="33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="35" t="n">
+        <v>76</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="35" t="n">
         <v>1000</v>
       </c>
-      <c r="J10" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="35" t="n">
-        <v>1</v>
-      </c>
       <c r="M10" s="35" t="n">
         <v>1</v>
       </c>
@@ -1931,24 +1963,33 @@
         <v>1</v>
       </c>
       <c r="AB10" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="35" t="n">
         <v>100</v>
       </c>
-      <c r="AC10" s="36" t="n">
+      <c r="AF10" s="36" t="n">
         <v>200</v>
       </c>
-      <c r="AD10" s="35" t="n">
+      <c r="AG10" s="35" t="n">
         <v>300</v>
       </c>
-      <c r="AE10" s="35" t="n">
+      <c r="AH10" s="35" t="n">
         <v>400</v>
       </c>
-      <c r="AF10" s="35" t="n">
+      <c r="AI10" s="35" t="n">
         <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="11">
       <c r="A11" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -1977,14 +2018,17 @@
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
       <c r="AB11" s="37"/>
-      <c r="AC11" s="36"/>
+      <c r="AC11" s="37"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="12">
       <c r="A12" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="37"/>
@@ -2013,10 +2057,13 @@
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
-      <c r="AC12" s="36"/>
+      <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
       <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="13">
       <c r="A13" s="33" t="s">
@@ -2053,10 +2100,13 @@
       <c r="AD13" s="37"/>
       <c r="AE13" s="37"/>
       <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="14">
       <c r="A14" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -2089,16 +2139,19 @@
       <c r="AD14" s="37"/>
       <c r="AE14" s="37"/>
       <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:AA1"/>
-    <mergeCell ref="AB1:AF2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AI2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:AD2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
